--- a/data/광주광역시_체육시설.xlsx
+++ b/data/광주광역시_체육시설.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="364">
   <si>
     <t>명칭</t>
-  </si>
-  <si>
-    <t>조성연도</t>
-  </si>
-  <si>
-    <t>면적(㎡)</t>
   </si>
   <si>
     <t>체력단련시설</t>
@@ -2039,15 +2033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="111.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
@@ -2058,49 +2053,37 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>44101</v>
@@ -2108,25 +2091,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <v>2018</v>
-      </c>
-      <c r="C3">
-        <v>4987</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>44101</v>
@@ -2134,25 +2111,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>1994</v>
-      </c>
-      <c r="C4">
-        <v>2084</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <v>44101</v>
@@ -2160,25 +2131,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>1997</v>
-      </c>
-      <c r="C5">
-        <v>27260</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
         <v>44101</v>
@@ -2186,25 +2151,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>1997</v>
-      </c>
-      <c r="C6">
-        <v>1081</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>44101</v>
@@ -2212,25 +2171,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>1997</v>
-      </c>
-      <c r="C7">
-        <v>649</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
         <v>44101</v>
@@ -2238,25 +2191,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1997</v>
-      </c>
-      <c r="C8">
-        <v>835</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
         <v>44101</v>
@@ -2264,25 +2211,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>1997</v>
-      </c>
-      <c r="C9">
-        <v>1200</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
         <v>44101</v>
@@ -2290,25 +2231,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>1997</v>
-      </c>
-      <c r="C10">
-        <v>1333</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
         <v>44101</v>
@@ -2316,25 +2251,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>1998</v>
-      </c>
-      <c r="C11">
-        <v>1150</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
         <v>44101</v>
@@ -2342,25 +2271,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="B12">
-        <v>1998</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
         <v>44101</v>
@@ -2368,25 +2291,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>1998</v>
-      </c>
-      <c r="C13">
-        <v>652</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
         <v>44101</v>
@@ -2394,25 +2311,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>1998</v>
-      </c>
-      <c r="C14">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>44101</v>
@@ -2420,25 +2331,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="B15">
-        <v>2001</v>
-      </c>
-      <c r="C15">
-        <v>12150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
         <v>44101</v>
@@ -2446,25 +2351,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>2004</v>
-      </c>
-      <c r="C16">
-        <v>1260</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
         <v>44101</v>
@@ -2472,25 +2371,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>2004</v>
-      </c>
-      <c r="C17">
-        <v>382</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
         <v>44101</v>
@@ -2498,25 +2391,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>2004</v>
-      </c>
-      <c r="C18">
-        <v>608</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
         <v>44101</v>
@@ -2524,25 +2411,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>2008</v>
-      </c>
-      <c r="C19">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>44101</v>
@@ -2550,25 +2431,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="B20">
-        <v>2009</v>
-      </c>
-      <c r="C20">
-        <v>12800</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
         <v>44101</v>
@@ -2576,25 +2451,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21">
-        <v>2009</v>
-      </c>
-      <c r="C21">
-        <v>660</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
         <v>44101</v>
@@ -2602,25 +2471,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>2009</v>
-      </c>
-      <c r="C22">
-        <v>372</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>44101</v>
@@ -2628,25 +2491,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>2009</v>
-      </c>
-      <c r="C23">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>44101</v>
@@ -2654,25 +2511,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24">
-        <v>2011</v>
-      </c>
-      <c r="C24">
-        <v>13782</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
         <v>44101</v>
@@ -2680,25 +2531,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="B25">
-        <v>2012</v>
-      </c>
-      <c r="C25">
-        <v>10200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <v>44101</v>
@@ -2706,25 +2551,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="B26">
-        <v>2013</v>
-      </c>
-      <c r="C26">
-        <v>337</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
         <v>44101</v>
@@ -2732,25 +2571,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27">
-        <v>2015</v>
-      </c>
-      <c r="C27">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>44101</v>
@@ -2758,25 +2591,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28">
-        <v>2018</v>
-      </c>
-      <c r="C28">
-        <v>689</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1">
         <v>44101</v>
@@ -2784,30 +2611,30 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>2651</v>
@@ -2816,7 +2643,7 @@
         <v>44054</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1">
         <v>44057</v>
@@ -2824,10 +2651,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>16336</v>
@@ -2836,7 +2663,7 @@
         <v>43988</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1">
         <v>44057</v>
@@ -2844,10 +2671,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>3994</v>
@@ -2856,7 +2683,7 @@
         <v>43879</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1">
         <v>44057</v>
@@ -2864,10 +2691,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>4378</v>
@@ -2876,7 +2703,7 @@
         <v>44081</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
         <v>44057</v>
@@ -2884,10 +2711,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>4513</v>
@@ -2896,7 +2723,7 @@
         <v>43991</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="1">
         <v>44057</v>
@@ -2904,10 +2731,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>643</v>
@@ -2916,7 +2743,7 @@
         <v>44177</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1">
         <v>44057</v>
@@ -2924,10 +2751,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <v>661</v>
@@ -2936,7 +2763,7 @@
         <v>43994</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1">
         <v>44057</v>
@@ -2944,10 +2771,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>440</v>
@@ -2956,7 +2783,7 @@
         <v>43870</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F39" s="1">
         <v>44057</v>
@@ -2964,10 +2791,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>300</v>
@@ -2976,7 +2803,7 @@
         <v>44166</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" s="1">
         <v>44057</v>
@@ -2990,25 +2817,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3016,16 +2843,16 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F44" s="1">
         <v>44151</v>
@@ -3039,16 +2866,16 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F45" s="1">
         <v>43971</v>
@@ -3062,16 +2889,16 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F46" s="1">
         <v>36586</v>
@@ -3085,16 +2912,16 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1">
         <v>35916</v>
@@ -3108,16 +2935,16 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F48" s="1">
         <v>35886</v>
@@ -3131,16 +2958,16 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" s="1">
         <v>36161</v>
@@ -3154,16 +2981,16 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F50" s="1">
         <v>35916</v>
@@ -3177,16 +3004,16 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F51" s="1">
         <v>36404</v>
@@ -3200,16 +3027,16 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1">
         <v>35855</v>
@@ -3223,16 +3050,16 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F53" s="1">
         <v>36861</v>
@@ -3246,16 +3073,16 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F54" s="1">
         <v>37226</v>
@@ -3269,16 +3096,16 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F55" s="1">
         <v>37683</v>
@@ -3292,16 +3119,16 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="1">
         <v>37685</v>
@@ -3315,16 +3142,16 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="1">
         <v>38088</v>
@@ -3338,16 +3165,16 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="1">
         <v>38718</v>
@@ -3361,16 +3188,16 @@
         <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1">
         <v>38596</v>
@@ -3384,16 +3211,16 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="1">
         <v>40391</v>
@@ -3407,16 +3234,16 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="1">
         <v>41214</v>
@@ -3430,16 +3257,16 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1">
         <v>37226</v>
@@ -3453,16 +3280,16 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="1">
         <v>43447</v>
@@ -3476,16 +3303,16 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F64" s="1">
         <v>37196</v>
@@ -3499,16 +3326,16 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F65" s="1">
         <v>37956</v>
@@ -3522,16 +3349,16 @@
         <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F66" s="1">
         <v>35400</v>
@@ -3545,16 +3372,16 @@
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F67" s="1">
         <v>37956</v>
@@ -3568,16 +3395,16 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F68" s="1">
         <v>36517</v>
@@ -3591,16 +3418,16 @@
         <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F69" s="1">
         <v>41518</v>
@@ -3614,16 +3441,16 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F70" s="1">
         <v>40299</v>
@@ -3637,16 +3464,16 @@
         <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F71" s="1">
         <v>40179</v>
@@ -3660,16 +3487,16 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F72" s="1">
         <v>42125</v>
@@ -3683,16 +3510,16 @@
         <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F73" s="1">
         <v>38845</v>
@@ -3706,16 +3533,16 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F74" s="1">
         <v>39699</v>
@@ -3729,16 +3556,16 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F75" s="1">
         <v>39814</v>
@@ -3752,16 +3579,16 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F76" s="1">
         <v>41070</v>
@@ -3775,16 +3602,16 @@
         <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F77" s="1">
         <v>41119</v>
@@ -3798,16 +3625,16 @@
         <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F78" s="1">
         <v>40179</v>
@@ -3821,16 +3648,16 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F79" s="1">
         <v>40179</v>
@@ -3844,16 +3671,16 @@
         <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F80" s="1">
         <v>40179</v>
@@ -3867,16 +3694,16 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F81" s="1">
         <v>42156</v>
@@ -3890,16 +3717,16 @@
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F82" s="1">
         <v>42736</v>
@@ -3913,16 +3740,16 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F83" s="1">
         <v>42370</v>
@@ -3936,16 +3763,16 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F84" s="1">
         <v>34377</v>
@@ -3959,16 +3786,16 @@
         <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F85" s="1">
         <v>37100</v>
@@ -3982,16 +3809,16 @@
         <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F86" s="1">
         <v>39331</v>
@@ -4005,16 +3832,16 @@
         <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F87" s="1">
         <v>36495</v>
@@ -4028,16 +3855,16 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F88" s="1">
         <v>36892</v>
@@ -4051,16 +3878,16 @@
         <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F89" s="1">
         <v>39020</v>
@@ -4074,16 +3901,16 @@
         <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F90" s="1">
         <v>34425</v>
@@ -4097,16 +3924,16 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F91" s="1">
         <v>39448</v>
@@ -4120,16 +3947,16 @@
         <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F92" s="1">
         <v>38607</v>
@@ -4143,16 +3970,16 @@
         <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F93" s="1">
         <v>42042</v>
@@ -4166,16 +3993,16 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F94" s="1">
         <v>42186</v>
@@ -4189,16 +4016,16 @@
         <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F95" s="1">
         <v>38650</v>
@@ -4212,16 +4039,16 @@
         <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F96" s="1">
         <v>39826</v>
@@ -4235,16 +4062,16 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F97" s="1">
         <v>41640</v>
@@ -4258,16 +4085,16 @@
         <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="1">
         <v>36472</v>
@@ -4281,16 +4108,16 @@
         <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F99" s="1">
         <v>37860</v>
@@ -4304,16 +4131,16 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F100" s="1">
         <v>36472</v>
@@ -4327,16 +4154,16 @@
         <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F101" s="1">
         <v>38607</v>
@@ -4350,16 +4177,16 @@
         <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F102" s="1">
         <v>42736</v>
@@ -4373,16 +4200,16 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F103" s="1">
         <v>42736</v>
@@ -4396,16 +4223,16 @@
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1">
         <v>34450</v>
@@ -4419,16 +4246,16 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F105" s="1">
         <v>35107</v>
@@ -4442,16 +4269,16 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F106" s="1">
         <v>35710</v>
@@ -4465,16 +4292,16 @@
         <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F107" s="1">
         <v>40422</v>
@@ -4488,16 +4315,16 @@
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F108" s="1">
         <v>37591</v>
@@ -4511,16 +4338,16 @@
         <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F109" s="1">
         <v>37591</v>
@@ -4534,16 +4361,16 @@
         <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F110" s="1">
         <v>37591</v>
@@ -4557,16 +4384,16 @@
         <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F111" s="1">
         <v>37956</v>
@@ -4580,16 +4407,16 @@
         <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F112" s="1">
         <v>42186</v>
@@ -4603,16 +4430,16 @@
         <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D113" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" t="s">
         <v>109</v>
-      </c>
-      <c r="E113" t="s">
-        <v>111</v>
       </c>
       <c r="F113" s="1">
         <v>39448</v>
@@ -4626,16 +4453,16 @@
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E114" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F114" s="1">
         <v>40179</v>
@@ -4649,16 +4476,16 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" t="s">
         <v>106</v>
       </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
       <c r="D115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F115" s="1">
         <v>43101</v>
@@ -4672,16 +4499,16 @@
         <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F116" s="1">
         <v>43466</v>
@@ -4692,25 +4519,25 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C120" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E120" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F120" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G120" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4718,22 +4545,22 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C121" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" t="s">
+        <v>291</v>
+      </c>
+      <c r="E121" t="s">
         <v>290</v>
       </c>
-      <c r="C121" t="s">
-        <v>294</v>
-      </c>
-      <c r="D121" t="s">
-        <v>293</v>
-      </c>
-      <c r="E121" t="s">
-        <v>292</v>
-      </c>
       <c r="F121" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G121" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4741,22 +4568,22 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G122" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4764,22 +4591,22 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
+        <v>280</v>
+      </c>
+      <c r="C123" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" t="s">
         <v>282</v>
       </c>
-      <c r="C123" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" t="s">
-        <v>276</v>
-      </c>
-      <c r="E123" t="s">
-        <v>284</v>
-      </c>
       <c r="F123" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G123" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4787,22 +4614,22 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C124" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F124" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4810,22 +4637,22 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" t="s">
+        <v>274</v>
+      </c>
+      <c r="E125" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" t="s">
         <v>272</v>
       </c>
-      <c r="C125" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" t="s">
-        <v>276</v>
-      </c>
-      <c r="E125" t="s">
-        <v>275</v>
-      </c>
-      <c r="F125" t="s">
-        <v>274</v>
-      </c>
       <c r="G125" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4833,22 +4660,22 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F126" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G126" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4856,22 +4683,22 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4879,22 +4706,22 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E128" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4902,65 +4729,65 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D132" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E132" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F132" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C133" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D133">
         <v>5292</v>
       </c>
       <c r="E133" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F133" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G133" s="1">
         <v>44185</v>
@@ -4968,22 +4795,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D134">
         <v>8214</v>
       </c>
       <c r="E134" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F134" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G134" s="1">
         <v>44185</v>
@@ -4991,22 +4818,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D135">
         <v>7140</v>
       </c>
       <c r="E135" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F135" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G135" s="1">
         <v>44185</v>
@@ -5014,22 +4841,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E136" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F136" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G136" s="1">
         <v>44185</v>
@@ -5037,22 +4864,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D137">
         <v>2580</v>
       </c>
       <c r="E137" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G137" s="1">
         <v>44185</v>
@@ -5060,22 +4887,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D138">
         <v>2025</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F138" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G138" s="1">
         <v>44185</v>
@@ -5083,22 +4910,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D139" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E139" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F139" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G139" s="1">
         <v>44185</v>
@@ -5106,22 +4933,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C140" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D140" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E140" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F140" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G140" s="1">
         <v>44185</v>
@@ -5129,22 +4956,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C141" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E141" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G141" s="1">
         <v>44185</v>
@@ -5152,22 +4979,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C142" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D142" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E142" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F142" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G142" s="1">
         <v>44185</v>
@@ -5175,22 +5002,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D143">
         <v>1600</v>
       </c>
       <c r="E143" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F143" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G143" s="1">
         <v>44185</v>
@@ -5198,22 +5025,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C144" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D144">
         <v>684</v>
       </c>
       <c r="E144" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F144" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G144" s="1">
         <v>44185</v>
@@ -5221,22 +5048,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145">
         <v>121.92</v>
       </c>
       <c r="E145" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F145" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G145" s="1">
         <v>44185</v>
@@ -5244,22 +5071,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E146" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F146" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G146" s="1">
         <v>44185</v>
@@ -5267,22 +5094,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B147" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C147" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D147" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E147" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G147" s="1">
         <v>44185</v>
@@ -5290,22 +5117,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D148" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E148" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F148" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G148" s="1">
         <v>44185</v>
@@ -5313,22 +5140,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D149" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E149" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G149" s="1">
         <v>44185</v>
@@ -5336,22 +5163,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C150" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F150" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G150" s="1">
         <v>44185</v>
@@ -5359,22 +5186,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G151" s="1">
         <v>44185</v>
@@ -5382,22 +5209,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G152" s="1">
         <v>44185</v>
@@ -5405,22 +5232,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E153" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G153" s="1">
         <v>44185</v>
@@ -5428,22 +5255,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B154" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G154" s="1">
         <v>44185</v>
@@ -5451,22 +5278,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G155" s="1">
         <v>44185</v>
@@ -5474,22 +5301,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G156" s="1">
         <v>44185</v>
@@ -5497,22 +5324,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G157" s="1">
         <v>44185</v>
@@ -5520,22 +5347,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G158" s="1">
         <v>44185</v>
@@ -5543,22 +5370,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G159" s="1">
         <v>44185</v>
@@ -5566,22 +5393,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E160" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G160" s="1">
         <v>44185</v>

--- a/data/광주광역시_체육시설.xlsx
+++ b/data/광주광역시_체육시설.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
   <si>
     <t>명칭</t>
   </si>
@@ -42,270 +42,6 @@
     <t>광주광역시 서구</t>
   </si>
   <si>
-    <t>062-360-7193</t>
-  </si>
-  <si>
-    <t>상무인공암벽장</t>
-  </si>
-  <si>
-    <t>인공암벽 패널 3면, 소형 암벽패널 1</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 상무누리로 148</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 유촌동 30</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 풍암공원로 20</t>
-  </si>
-  <si>
-    <t>금호게이트볼장</t>
-  </si>
-  <si>
-    <t>게이트볼장 2면</t>
-  </si>
-  <si>
-    <t>062-360-7723</t>
-  </si>
-  <si>
-    <t>서창동 축구장</t>
-  </si>
-  <si>
-    <t>축구장 1면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 서창동 748번지 외 9필지</t>
-  </si>
-  <si>
-    <t>농성동 테니스장</t>
-  </si>
-  <si>
-    <t>테니스장 2면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 농성동 417-8</t>
-  </si>
-  <si>
-    <t>상무시민공원 종합운동장</t>
-  </si>
-  <si>
-    <t>축구장 및 곡선7레인, 직선 8레인</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 상무공원로 101</t>
-  </si>
-  <si>
-    <t>062-360-7850</t>
-  </si>
-  <si>
-    <t>풍암생활체육공원 족구장</t>
-  </si>
-  <si>
-    <t>족구장 2면</t>
-  </si>
-  <si>
-    <t>상무시민공원 배구장</t>
-  </si>
-  <si>
-    <t>배구장 1면</t>
-  </si>
-  <si>
-    <t>상무시민공원 농구장</t>
-  </si>
-  <si>
-    <t>농구장 1면</t>
-  </si>
-  <si>
-    <t>상무시민공원 테니스장</t>
-  </si>
-  <si>
-    <t>테니스장 3면</t>
-  </si>
-  <si>
-    <t>상무시민공원 배드민턴장</t>
-  </si>
-  <si>
-    <t>배트민턴장 3면</t>
-  </si>
-  <si>
-    <t>신암근린공원 테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 풍암2로 26</t>
-  </si>
-  <si>
-    <t>마재게이트볼장</t>
-  </si>
-  <si>
-    <t>게이트볼장 1면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 금호동 789</t>
-  </si>
-  <si>
-    <t>풍암게이트볼장</t>
-  </si>
-  <si>
-    <t>서광게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 쌍촌동 375-15</t>
-  </si>
-  <si>
-    <t>마륵동 축구장</t>
-  </si>
-  <si>
-    <t>축구장 3면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 마륵동 606번지</t>
-  </si>
-  <si>
-    <t>풍암생활체육공원 정구장</t>
-  </si>
-  <si>
-    <t>정구장 2면</t>
-  </si>
-  <si>
-    <t>풍암생활체육공원 배구장</t>
-  </si>
-  <si>
-    <t>풍암생활체육공원 농구장</t>
-  </si>
-  <si>
-    <t>치평게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 치평동 1280-1</t>
-  </si>
-  <si>
-    <t>덕흥동 축구장</t>
-  </si>
-  <si>
-    <t>축구장 2면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 덕흥동 146</t>
-  </si>
-  <si>
-    <t>광화게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 화정로 179번길 63</t>
-  </si>
-  <si>
-    <t>서창게이틀볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 서창둑길 18</t>
-  </si>
-  <si>
-    <t>상무게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 쌍촌동 927-12</t>
-  </si>
-  <si>
-    <t>덕흥동 야구장</t>
-  </si>
-  <si>
-    <t>야구장 2면</t>
-  </si>
-  <si>
-    <t>인라인스케이트장</t>
-  </si>
-  <si>
-    <t>인라인스케이트장 1면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 금화로 240</t>
-  </si>
-  <si>
-    <t>광천동 족구장</t>
-  </si>
-  <si>
-    <t>족구장 1면</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 광천동 746-1</t>
-  </si>
-  <si>
-    <t>유덕동 족구장</t>
-  </si>
-  <si>
-    <t>덕흥동 족구장</t>
-  </si>
-  <si>
-    <t>게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 산수동 401-8</t>
-  </si>
-  <si>
-    <t>산수게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 필문대로12-7</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 동명동 80-15</t>
-  </si>
-  <si>
-    <t>동명동게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 독립로384번길31</t>
-  </si>
-  <si>
-    <t>계림동게이트볼장</t>
-  </si>
-  <si>
-    <t>수영장, 생활체육관, 헬스장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 남문로 646</t>
-  </si>
-  <si>
-    <t>동구문화센터</t>
-  </si>
-  <si>
-    <t>정구장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 화산로 318-12</t>
-  </si>
-  <si>
-    <t>용산정구장</t>
-  </si>
-  <si>
-    <t>체육관, 부대시설</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 남문로 418-15</t>
-  </si>
-  <si>
-    <t>동구다목적체육관</t>
-  </si>
-  <si>
-    <t>잔디구장, 테니스장, 게이트볼장, 조깅로</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 화산로 318-26</t>
-  </si>
-  <si>
-    <t>용산생활체육공원</t>
-  </si>
-  <si>
-    <t>수영장, 헬스장</t>
-  </si>
-  <si>
-    <t>광주광역시 동구 필문대로205번길 17</t>
-  </si>
-  <si>
-    <t>동구국민체육센터</t>
-  </si>
-  <si>
     <t>데이터기준일자</t>
   </si>
   <si>
@@ -324,432 +60,9 @@
     <t>시설명</t>
   </si>
   <si>
-    <t>골프장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 서봉동 124</t>
-  </si>
-  <si>
-    <t>서봉지구 파크골프장</t>
-  </si>
-  <si>
     <t>종목별체육시설</t>
   </si>
   <si>
-    <t>광주광역시 광산구 운남동 105번지</t>
-  </si>
-  <si>
-    <t>영산강 그라운드 골프장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 풍영철길로 106-2</t>
-  </si>
-  <si>
-    <t>풍영체육시설단지 정구장</t>
-  </si>
-  <si>
-    <t>농구장</t>
-  </si>
-  <si>
-    <t>풍영정체육시설 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산정동 548</t>
-  </si>
-  <si>
-    <t>하남스포츠파크 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 799-1</t>
-  </si>
-  <si>
-    <t>더불어락 근린공원 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 793-1</t>
-  </si>
-  <si>
-    <t>풍영정천근린공원 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡동 684-1</t>
-  </si>
-  <si>
-    <t>제2풍영정 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡동 686-1</t>
-  </si>
-  <si>
-    <t>제1풍영정 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동 602</t>
-  </si>
-  <si>
-    <t>풍영정천 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동1602-1</t>
-  </si>
-  <si>
-    <t>우산시영A 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 소촌동 424</t>
-  </si>
-  <si>
-    <t>솔머리 농구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡동 539</t>
-  </si>
-  <si>
-    <t>산정공원농구장</t>
-  </si>
-  <si>
-    <t>풋살장</t>
-  </si>
-  <si>
-    <t>하남스포츠파크 풋살장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 하남동 457</t>
-  </si>
-  <si>
-    <t>고저IC</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 쌍암동 695-3</t>
-  </si>
-  <si>
-    <t>첨단 인라인스케이트장</t>
-  </si>
-  <si>
-    <t>스포츠센터</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동 819-8</t>
-  </si>
-  <si>
-    <t>첨단다목적체육센터</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동 1577-1</t>
-  </si>
-  <si>
-    <t>빛고을 스포츠센타</t>
-  </si>
-  <si>
-    <t>궁도장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 소촌동 산12-7</t>
-  </si>
-  <si>
-    <t>송 무 정</t>
-  </si>
-  <si>
-    <t>야구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 12번지</t>
-  </si>
-  <si>
-    <t>운남종합운동장야구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동 68</t>
-  </si>
-  <si>
-    <t>첨단종합운동장 야구장</t>
-  </si>
-  <si>
-    <t>소프트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동 57</t>
-  </si>
-  <si>
-    <t>첨단종합운동장 소프트볼장</t>
-  </si>
-  <si>
-    <t>배드민턴장</t>
-  </si>
-  <si>
-    <t>하남스포츠파크 배드민턴장</t>
-  </si>
-  <si>
-    <t>첨단다목적체육센터(신관)</t>
-  </si>
-  <si>
-    <t>첨단다목적체육센터(구관)</t>
-  </si>
-  <si>
-    <t>풍영체육시설단지 배드민턴장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡2동 539(월곡2동 산정공원 내)</t>
-  </si>
-  <si>
-    <t>산정공원 배드민턴장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 소촌동 산4-1(송정공원 내)</t>
-  </si>
-  <si>
-    <t>송정공원 배드민턴장</t>
-  </si>
-  <si>
-    <t>테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 하남동 499-3</t>
-  </si>
-  <si>
-    <t>하남구장 테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 안청동 736-1</t>
-  </si>
-  <si>
-    <t>안청공원 테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 소촌동 93-2번지</t>
-  </si>
-  <si>
-    <t>송정근린공원테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 비아동 35-6</t>
-  </si>
-  <si>
-    <t>첨단 테니스장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡동 587</t>
-  </si>
-  <si>
-    <t>월곡공원 테니스장</t>
-  </si>
-  <si>
-    <t>족구장</t>
-  </si>
-  <si>
-    <t>안청구장 족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 장수동 1-3</t>
-  </si>
-  <si>
-    <t>진곡산단 족구장</t>
-  </si>
-  <si>
-    <t>차량기지 스포츠파크 족구장</t>
-  </si>
-  <si>
-    <t>풍영정체육시설 족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동 575</t>
-  </si>
-  <si>
-    <t>풍영정천 하천부지족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 792-7</t>
-  </si>
-  <si>
-    <t>풍영정천근린 공원족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 선동 697-3</t>
-  </si>
-  <si>
-    <t>임곡교 족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 신가동 594-34</t>
-  </si>
-  <si>
-    <t>신가 제2족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 신가동 595-40</t>
-  </si>
-  <si>
-    <t>신가족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동 879</t>
-  </si>
-  <si>
-    <t>첨단강변공원 족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동 720-1 (무진로하부)</t>
-  </si>
-  <si>
-    <t>우산동 족구장1</t>
-  </si>
-  <si>
-    <t>축구장</t>
-  </si>
-  <si>
-    <t>하남스포츠파크</t>
-  </si>
-  <si>
-    <t>풍영구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 용동 669-1</t>
-  </si>
-  <si>
-    <t>용동구장 (평동2번도로)</t>
-  </si>
-  <si>
-    <t>안청구장(하남산단9번로)</t>
-  </si>
-  <si>
-    <t>하남인조잔디축구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 12</t>
-  </si>
-  <si>
-    <t>운남 다목적구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 쌍암동 653-1</t>
-  </si>
-  <si>
-    <t>쌍암 다목적구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동334-5</t>
-  </si>
-  <si>
-    <t>첨단종합 운동장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 황룡동 423</t>
-  </si>
-  <si>
-    <t>송정1교구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 고룡동 145-2</t>
-  </si>
-  <si>
-    <t>연동게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 산월동 334-5</t>
-  </si>
-  <si>
-    <t>첨단체육시설단지 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 신촌동 1013-4</t>
-  </si>
-  <si>
-    <t>송정IC 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 운남동 515-10</t>
-  </si>
-  <si>
-    <t>운남대교 게이트볼장</t>
-  </si>
-  <si>
-    <t>첨단전천후 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월곡동 686-1(운남주공10단지앞 풍영정 1공원)</t>
-  </si>
-  <si>
-    <t>풍영정1공원게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 임곡동 591 (용진교 아래)</t>
-  </si>
-  <si>
-    <t>용 진 교 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 우산동 1611-4</t>
-  </si>
-  <si>
-    <t>우산동IC 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 신가동 870</t>
-  </si>
-  <si>
-    <t>신가공원 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월계동 760-1</t>
-  </si>
-  <si>
-    <t>응암공원 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 임곡동 457</t>
-  </si>
-  <si>
-    <t>임곡초교 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 남산동 698-20</t>
-  </si>
-  <si>
-    <t>본   량  게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 장록동 2-3</t>
-  </si>
-  <si>
-    <t>장    록  게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 월계동 848-1</t>
-  </si>
-  <si>
-    <t>무양공원 게이트볼장</t>
-  </si>
-  <si>
-    <t>쌍암공원  게이트볼장</t>
-  </si>
-  <si>
-    <t>산정공원  게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 소촌동 산 4-1</t>
-  </si>
-  <si>
-    <t>송정공원 게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 송정1동 554-1</t>
-  </si>
-  <si>
-    <t>상전게이트볼장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 오선동 587</t>
-  </si>
-  <si>
-    <t>발산교 하부 족구장</t>
-  </si>
-  <si>
-    <t>광주광역시 광산구 선암동 212-8번지</t>
-  </si>
-  <si>
-    <t>평동대교 하부 족구장</t>
-  </si>
-  <si>
     <t>등록</t>
   </si>
   <si>
@@ -771,135 +84,39 @@
     <t>사대수 1</t>
   </si>
   <si>
-    <t>062-671-8383</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 중앙로110번길 36(사동 177)</t>
-  </si>
-  <si>
-    <t>관덕정</t>
-  </si>
-  <si>
-    <t>국궁장</t>
-  </si>
-  <si>
     <t>사대수 32</t>
   </si>
   <si>
-    <t>062-654-1114</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 회재로 1187 (주월동 1311)</t>
-  </si>
-  <si>
-    <t>광주국제양궁장</t>
-  </si>
-  <si>
-    <t>양궁장</t>
-  </si>
-  <si>
     <t xml:space="preserve">광주 남구(자치행정과) </t>
   </si>
   <si>
     <t>2면(실외1, 실내1)</t>
   </si>
   <si>
-    <t>062-607-2841</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 승촌2길 21 (승촌동 757)</t>
-  </si>
-  <si>
-    <t>승촌게이트볼장</t>
-  </si>
-  <si>
-    <t>전천후 게이트볼장</t>
-  </si>
-  <si>
     <t>광주 남구(교육지원과)</t>
   </si>
   <si>
     <t>5레인(실내)</t>
   </si>
   <si>
-    <t>062-670-5000</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 봉선로 208 (봉선동 1068)</t>
-  </si>
-  <si>
-    <t>남구 청소년수련관 수영장</t>
-  </si>
-  <si>
-    <t>수영장</t>
-  </si>
-  <si>
     <t xml:space="preserve">광주광역시 </t>
   </si>
   <si>
     <t>6레인(실내)</t>
   </si>
   <si>
-    <t>062-603-8981</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 덕남길 7 (노대동 592)</t>
-  </si>
-  <si>
-    <t>빛고을노인건강타운 수영장</t>
-  </si>
-  <si>
     <t>수영장, 배드민턴, 헬스장 등</t>
   </si>
   <si>
-    <t>062-674-8653</t>
-  </si>
-  <si>
-    <t>광주광역시 남구 화산로 110 (진월동 44)</t>
-  </si>
-  <si>
-    <t>남구다목적체육관</t>
-  </si>
-  <si>
-    <t>생활체육관</t>
-  </si>
-  <si>
     <t>탁구,농구,배드민턴,에어로빅,헬스장등</t>
   </si>
   <si>
-    <t>062-603-8823</t>
-  </si>
-  <si>
-    <t>빛고을노인건강타운 체육관</t>
-  </si>
-  <si>
     <t xml:space="preserve">4면(하드) </t>
   </si>
   <si>
-    <t xml:space="preserve">062-652-7018 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">광주광역시 남구 대남대로117번길 40 (봉선동 1016) </t>
-  </si>
-  <si>
-    <t>봉선 테니스장</t>
-  </si>
-  <si>
-    <t xml:space="preserve">테니스장 </t>
-  </si>
-  <si>
     <t xml:space="preserve">16면(케미칼) </t>
   </si>
   <si>
-    <t xml:space="preserve">062-714-1394 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">광주광역시 남구 화산로 30 (진월동 540) </t>
-  </si>
-  <si>
-    <t>진월국제테니스장</t>
-  </si>
-  <si>
     <t xml:space="preserve">소유기관 </t>
   </si>
   <si>
@@ -927,175 +144,16 @@
     <t>1면</t>
   </si>
   <si>
-    <t>광주광역시 동림동 130-7</t>
-  </si>
-  <si>
-    <t>동림동 친수공원</t>
-  </si>
-  <si>
     <t>인조잔디</t>
   </si>
   <si>
-    <t>광주광역시 각화동 46-1</t>
-  </si>
-  <si>
-    <t>각화1교 하부</t>
-  </si>
-  <si>
-    <t>광주광역시 태령동 210-25</t>
-  </si>
-  <si>
-    <t>태령교 하부</t>
-  </si>
-  <si>
-    <t>광주광역시 일곡동 820-2</t>
-  </si>
-  <si>
-    <t>일곡제2근린공원</t>
-  </si>
-  <si>
-    <t>광주광역시 운암동 478-1</t>
-  </si>
-  <si>
-    <t>지우어린이공원</t>
-  </si>
-  <si>
-    <t>광주광역시 충효동 486-4</t>
-  </si>
-  <si>
-    <t>충효마을</t>
-  </si>
-  <si>
-    <t>광주광역시 운암동 167</t>
-  </si>
-  <si>
-    <t>버들어린이공원</t>
-  </si>
-  <si>
-    <t>광주광역시 용봉동 158-6</t>
-  </si>
-  <si>
-    <t>용흥공원</t>
-  </si>
-  <si>
-    <t>광주광역시 용봉동 1335-1</t>
-  </si>
-  <si>
-    <t>용봉북어린이공원</t>
-  </si>
-  <si>
-    <t>광주광역시 문흥동 1009-1</t>
-  </si>
-  <si>
-    <t>문화근린공원</t>
-  </si>
-  <si>
-    <t>광주광역시 문흥동 1014</t>
-  </si>
-  <si>
-    <t>문흥소공원</t>
-  </si>
-  <si>
-    <t>광주광역시 두암동 969-4</t>
-  </si>
-  <si>
-    <t>두암제1근린공원</t>
-  </si>
-  <si>
-    <t>광주광역시 두암동 126-1</t>
-  </si>
-  <si>
-    <t>제2순환도로 두암교 밑</t>
-  </si>
-  <si>
     <t>2면</t>
   </si>
   <si>
-    <t>광주광역시 동림동 896-7</t>
-  </si>
-  <si>
-    <t>동림동 삼익고가하부</t>
-  </si>
-  <si>
-    <t>광주광역시 각화동 471</t>
-  </si>
-  <si>
-    <t>각화 금호A 단지내</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 연제동 730</t>
-  </si>
-  <si>
-    <t>북구종합운동장</t>
-  </si>
-  <si>
-    <t>각화1교하부 체육공간(각화1교 하부)</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 오룡동 1113</t>
-  </si>
-  <si>
-    <t>첨단 론볼장</t>
-  </si>
-  <si>
-    <t>론볼장</t>
-  </si>
-  <si>
     <t>콘크리트</t>
   </si>
   <si>
-    <t>광주광역시 연제동 777</t>
-  </si>
-  <si>
-    <t>북구종합운동장 족구장(종합운동장)</t>
-  </si>
-  <si>
-    <t>광주광역시 운암동 228-1</t>
-  </si>
-  <si>
-    <t>운암족구장(운암교 하부)</t>
-  </si>
-  <si>
-    <t>광주광역시 두암동 126-2</t>
-  </si>
-  <si>
-    <t>두암체육공원 족구장(두암3동 제2순환도로 하부)</t>
-  </si>
-  <si>
-    <t>광주광역시 동림동 149-6</t>
-  </si>
-  <si>
-    <t>동림동 빛고을 족구장(동림동성당앞 빛고을로(북문교차로) 교각 하부)</t>
-  </si>
-  <si>
-    <t>광주광역시 동림동 913-1</t>
-  </si>
-  <si>
-    <t>동림동 우석족구장(우석교차로 교각 하부)</t>
-  </si>
-  <si>
     <t>3면</t>
-  </si>
-  <si>
-    <t>광주광역시 두암동 126-1일원</t>
-  </si>
-  <si>
-    <t>신정배드민턴장 제2순환도로 두암교</t>
-  </si>
-  <si>
-    <t>북구 종합운동장</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 문흥동 1009-1</t>
-  </si>
-  <si>
-    <t>문화근린공원 인조잔디구장</t>
-  </si>
-  <si>
-    <t>광주광역시 북구 일곡동 850-1</t>
-  </si>
-  <si>
-    <t>일곡 제1근린공원 인조잔디구장</t>
   </si>
   <si>
     <t>관리기관</t>
@@ -2033,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2070,18 +1128,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -2090,18 +1136,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
@@ -2110,18 +1144,6 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -2130,18 +1152,6 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
@@ -2150,18 +1160,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
@@ -2170,18 +1168,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
@@ -2190,18 +1176,6 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
@@ -2210,18 +1184,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
@@ -2230,18 +1192,6 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
@@ -2250,18 +1200,6 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -2270,18 +1208,6 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
@@ -2290,18 +1216,6 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -2310,18 +1224,6 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
       <c r="G14" t="s">
         <v>6</v>
       </c>
@@ -2330,18 +1232,6 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
@@ -2350,18 +1240,6 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
       <c r="G16" t="s">
         <v>6</v>
       </c>
@@ -2370,18 +1248,6 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -2390,18 +1256,6 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
@@ -2410,18 +1264,6 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
       <c r="G19" t="s">
         <v>6</v>
       </c>
@@ -2430,18 +1272,6 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
       <c r="G20" t="s">
         <v>6</v>
       </c>
@@ -2450,18 +1280,6 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
       <c r="G21" t="s">
         <v>6</v>
       </c>
@@ -2470,18 +1288,6 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
       <c r="G22" t="s">
         <v>6</v>
       </c>
@@ -2490,18 +1296,6 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
@@ -2510,18 +1304,6 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
       <c r="G24" t="s">
         <v>6</v>
       </c>
@@ -2530,18 +1312,6 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
       <c r="G25" t="s">
         <v>6</v>
       </c>
@@ -2550,18 +1320,6 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
       <c r="G26" t="s">
         <v>6</v>
       </c>
@@ -2570,18 +1328,6 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
@@ -2590,18 +1336,6 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
       <c r="G28" t="s">
         <v>6</v>
       </c>
@@ -2611,200 +1345,119 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
       <c r="C32">
         <v>2651</v>
       </c>
       <c r="D32" s="1">
         <v>44054</v>
       </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
       <c r="F32" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
       <c r="C33">
         <v>16336</v>
       </c>
       <c r="D33" s="1">
         <v>43988</v>
       </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
       <c r="F33" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
       <c r="C34">
         <v>3994</v>
       </c>
       <c r="D34" s="1">
         <v>43879</v>
       </c>
-      <c r="E34" t="s">
-        <v>86</v>
-      </c>
       <c r="F34" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
       <c r="C35">
         <v>4378</v>
       </c>
       <c r="D35" s="1">
         <v>44081</v>
       </c>
-      <c r="E35" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
       <c r="C36">
         <v>4513</v>
       </c>
       <c r="D36" s="1">
         <v>43991</v>
       </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
       <c r="C37">
         <v>643</v>
       </c>
       <c r="D37" s="1">
         <v>44177</v>
       </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
       <c r="F37" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
       <c r="C38">
         <v>661</v>
       </c>
       <c r="D38" s="1">
         <v>43994</v>
       </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
       <c r="F38" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39">
         <v>440</v>
       </c>
       <c r="D39" s="1">
         <v>43870</v>
       </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
       <c r="F39" s="1">
         <v>44057</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
       <c r="C40">
         <v>300</v>
       </c>
       <c r="D40" s="1">
         <v>44166</v>
       </c>
-      <c r="E40" t="s">
-        <v>72</v>
-      </c>
       <c r="F40" s="1">
         <v>44057</v>
       </c>
@@ -2817,25 +1470,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2843,16 +1496,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
         <v>44151</v>
@@ -2866,16 +1510,7 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E45" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1">
         <v>43971</v>
@@ -2889,16 +1524,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F46" s="1">
         <v>36586</v>
@@ -2912,16 +1538,7 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
         <v>35916</v>
@@ -2935,16 +1552,7 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
         <v>35886</v>
@@ -2958,16 +1566,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1">
         <v>36161</v>
@@ -2981,16 +1580,7 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1">
         <v>35916</v>
@@ -3004,16 +1594,7 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F51" s="1">
         <v>36404</v>
@@ -3027,16 +1608,7 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1">
         <v>35855</v>
@@ -3050,16 +1622,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1">
         <v>36861</v>
@@ -3073,16 +1636,7 @@
         <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F54" s="1">
         <v>37226</v>
@@ -3096,16 +1650,7 @@
         <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1">
         <v>37683</v>
@@ -3119,16 +1664,7 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1">
         <v>37685</v>
@@ -3142,16 +1678,7 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" t="s">
-        <v>217</v>
-      </c>
-      <c r="E57" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1">
         <v>38088</v>
@@ -3165,16 +1692,7 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" t="s">
-        <v>215</v>
-      </c>
-      <c r="E58" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F58" s="1">
         <v>38718</v>
@@ -3188,16 +1706,7 @@
         <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1">
         <v>38596</v>
@@ -3211,16 +1720,7 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1">
         <v>40391</v>
@@ -3234,16 +1734,7 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1">
         <v>41214</v>
@@ -3257,16 +1748,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
         <v>37226</v>
@@ -3280,16 +1762,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1">
         <v>43447</v>
@@ -3303,16 +1776,7 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1">
         <v>37196</v>
@@ -3326,16 +1790,7 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F65" s="1">
         <v>37956</v>
@@ -3349,16 +1804,7 @@
         <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
         <v>35400</v>
@@ -3372,16 +1818,7 @@
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" t="s">
-        <v>198</v>
-      </c>
-      <c r="E67" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1">
         <v>37956</v>
@@ -3395,16 +1832,7 @@
         <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1">
         <v>36517</v>
@@ -3418,16 +1846,7 @@
         <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1">
         <v>41518</v>
@@ -3441,16 +1860,7 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1">
         <v>40299</v>
@@ -3464,16 +1874,7 @@
         <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F71" s="1">
         <v>40179</v>
@@ -3487,16 +1888,7 @@
         <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1">
         <v>42125</v>
@@ -3510,16 +1902,7 @@
         <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>190</v>
-      </c>
-      <c r="D73" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
         <v>38845</v>
@@ -3533,16 +1916,7 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
         <v>39699</v>
@@ -3556,16 +1930,7 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
         <v>39814</v>
@@ -3579,16 +1944,7 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1">
         <v>41070</v>
@@ -3602,16 +1958,7 @@
         <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1">
         <v>41119</v>
@@ -3625,16 +1972,7 @@
         <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" t="s">
-        <v>179</v>
-      </c>
-      <c r="E78" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F78" s="1">
         <v>40179</v>
@@ -3648,16 +1986,7 @@
         <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1">
         <v>40179</v>
@@ -3671,16 +2000,7 @@
         <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>176</v>
-      </c>
-      <c r="D80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
         <v>40179</v>
@@ -3694,16 +2014,7 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1">
         <v>42156</v>
@@ -3717,16 +2028,7 @@
         <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" t="s">
-        <v>173</v>
-      </c>
-      <c r="E82" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1">
         <v>42736</v>
@@ -3740,16 +2042,7 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1">
         <v>42370</v>
@@ -3763,16 +2056,7 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F84" s="1">
         <v>34377</v>
@@ -3786,16 +2070,7 @@
         <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F85" s="1">
         <v>37100</v>
@@ -3809,16 +2084,7 @@
         <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" t="s">
-        <v>166</v>
-      </c>
-      <c r="D86" t="s">
-        <v>165</v>
-      </c>
-      <c r="E86" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F86" s="1">
         <v>39331</v>
@@ -3832,16 +2098,7 @@
         <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" t="s">
-        <v>164</v>
-      </c>
-      <c r="D87" t="s">
-        <v>163</v>
-      </c>
-      <c r="E87" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F87" s="1">
         <v>36495</v>
@@ -3855,16 +2112,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E88" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1">
         <v>36892</v>
@@ -3878,16 +2126,7 @@
         <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F89" s="1">
         <v>39020</v>
@@ -3901,16 +2140,7 @@
         <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F90" s="1">
         <v>34425</v>
@@ -3924,16 +2154,7 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F91" s="1">
         <v>39448</v>
@@ -3947,16 +2168,7 @@
         <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1">
         <v>38607</v>
@@ -3970,16 +2182,7 @@
         <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1">
         <v>42042</v>
@@ -3993,16 +2196,7 @@
         <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F94" s="1">
         <v>42186</v>
@@ -4016,16 +2210,7 @@
         <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E95" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="F95" s="1">
         <v>38650</v>
@@ -4039,16 +2224,7 @@
         <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="F96" s="1">
         <v>39826</v>
@@ -4062,16 +2238,7 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="F97" s="1">
         <v>41640</v>
@@ -4085,16 +2252,7 @@
         <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" t="s">
-        <v>142</v>
-      </c>
-      <c r="D98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1">
         <v>36472</v>
@@ -4108,16 +2266,7 @@
         <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1">
         <v>37860</v>
@@ -4131,16 +2280,7 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="F100" s="1">
         <v>36472</v>
@@ -4154,16 +2294,7 @@
         <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F101" s="1">
         <v>38607</v>
@@ -4177,16 +2308,7 @@
         <v>79</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" t="s">
-        <v>131</v>
-      </c>
-      <c r="E102" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F102" s="1">
         <v>42736</v>
@@ -4200,16 +2322,7 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1">
         <v>42736</v>
@@ -4223,16 +2336,7 @@
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F104" s="1">
         <v>34450</v>
@@ -4246,16 +2350,7 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F105" s="1">
         <v>35107</v>
@@ -4269,16 +2364,7 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" t="s">
-        <v>123</v>
-      </c>
-      <c r="E106" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F106" s="1">
         <v>35710</v>
@@ -4292,16 +2378,7 @@
         <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1">
         <v>40422</v>
@@ -4315,16 +2392,7 @@
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1">
         <v>37591</v>
@@ -4338,16 +2406,7 @@
         <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1">
         <v>37591</v>
@@ -4361,16 +2420,7 @@
         <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1">
         <v>37591</v>
@@ -4384,16 +2434,7 @@
         <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" t="s">
-        <v>113</v>
-      </c>
-      <c r="E111" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1">
         <v>37956</v>
@@ -4407,16 +2448,7 @@
         <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" t="s">
-        <v>111</v>
-      </c>
-      <c r="E112" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1">
         <v>42186</v>
@@ -4430,16 +2462,7 @@
         <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" t="s">
-        <v>110</v>
-      </c>
-      <c r="D113" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1">
         <v>39448</v>
@@ -4453,16 +2476,7 @@
         <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F114" s="1">
         <v>40179</v>
@@ -4476,16 +2490,7 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" t="s">
-        <v>105</v>
-      </c>
-      <c r="E115" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F115" s="1">
         <v>43101</v>
@@ -4499,16 +2504,7 @@
         <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" t="s">
-        <v>103</v>
-      </c>
-      <c r="D116" t="s">
-        <v>102</v>
-      </c>
-      <c r="E116" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="F116" s="1">
         <v>43466</v>
@@ -4519,896 +2515,536 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
-      <c r="B121" t="s">
-        <v>288</v>
-      </c>
-      <c r="C121" t="s">
-        <v>292</v>
-      </c>
-      <c r="D121" t="s">
-        <v>291</v>
-      </c>
-      <c r="E121" t="s">
-        <v>290</v>
-      </c>
       <c r="F121" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
-      <c r="B122" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" t="s">
-        <v>287</v>
-      </c>
-      <c r="D122" t="s">
-        <v>286</v>
-      </c>
-      <c r="E122" t="s">
-        <v>285</v>
-      </c>
       <c r="F122" t="s">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
-      <c r="B123" t="s">
-        <v>280</v>
-      </c>
-      <c r="C123" t="s">
-        <v>283</v>
-      </c>
-      <c r="D123" t="s">
-        <v>274</v>
-      </c>
-      <c r="E123" t="s">
-        <v>282</v>
-      </c>
       <c r="F123" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4</v>
       </c>
-      <c r="B124" t="s">
-        <v>280</v>
-      </c>
-      <c r="C124" t="s">
-        <v>279</v>
-      </c>
-      <c r="D124" t="s">
-        <v>278</v>
-      </c>
-      <c r="E124" t="s">
-        <v>277</v>
-      </c>
       <c r="F124" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="G124" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
-      <c r="B125" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" t="s">
-        <v>275</v>
-      </c>
-      <c r="D125" t="s">
-        <v>274</v>
-      </c>
-      <c r="E125" t="s">
-        <v>273</v>
-      </c>
       <c r="F125" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G125" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6</v>
       </c>
-      <c r="B126" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" t="s">
-        <v>269</v>
-      </c>
-      <c r="D126" t="s">
-        <v>268</v>
-      </c>
-      <c r="E126" t="s">
-        <v>267</v>
-      </c>
       <c r="F126" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>264</v>
-      </c>
-      <c r="C127" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" t="s">
-        <v>262</v>
-      </c>
-      <c r="E127" t="s">
-        <v>261</v>
-      </c>
       <c r="F127" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>259</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>8</v>
       </c>
-      <c r="B128" t="s">
-        <v>258</v>
-      </c>
-      <c r="C128" t="s">
-        <v>257</v>
-      </c>
-      <c r="D128" t="s">
-        <v>256</v>
-      </c>
-      <c r="E128" t="s">
-        <v>255</v>
-      </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>9</v>
       </c>
-      <c r="B129" t="s">
-        <v>253</v>
-      </c>
-      <c r="C129" t="s">
-        <v>252</v>
-      </c>
-      <c r="D129" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" t="s">
-        <v>250</v>
-      </c>
       <c r="F129" t="s">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>248</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>362</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="E132" t="s">
-        <v>360</v>
+        <v>46</v>
       </c>
       <c r="F132" t="s">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>191</v>
-      </c>
-      <c r="B133" t="s">
-        <v>358</v>
-      </c>
-      <c r="C133" t="s">
-        <v>357</v>
-      </c>
       <c r="D133">
         <v>5292</v>
       </c>
       <c r="E133" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G133" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>191</v>
-      </c>
-      <c r="B134" t="s">
-        <v>356</v>
-      </c>
-      <c r="C134" t="s">
-        <v>355</v>
-      </c>
       <c r="D134">
         <v>8214</v>
       </c>
       <c r="E134" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G134" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>191</v>
-      </c>
-      <c r="B135" t="s">
-        <v>354</v>
-      </c>
-      <c r="C135" t="s">
-        <v>334</v>
-      </c>
       <c r="D135">
         <v>7140</v>
       </c>
       <c r="E135" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G135" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>151</v>
-      </c>
-      <c r="B136" t="s">
-        <v>353</v>
-      </c>
-      <c r="C136" t="s">
-        <v>352</v>
-      </c>
       <c r="D136" t="s">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="E136" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G136" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>171</v>
-      </c>
-      <c r="B137" t="s">
-        <v>350</v>
-      </c>
-      <c r="C137" t="s">
-        <v>349</v>
-      </c>
       <c r="D137">
         <v>2580</v>
       </c>
       <c r="E137" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G137" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>171</v>
-      </c>
-      <c r="B138" t="s">
-        <v>348</v>
-      </c>
-      <c r="C138" t="s">
-        <v>347</v>
-      </c>
       <c r="D138">
         <v>2025</v>
       </c>
       <c r="E138" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G138" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>171</v>
-      </c>
-      <c r="B139" t="s">
-        <v>346</v>
-      </c>
-      <c r="C139" t="s">
-        <v>345</v>
-      </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="E139" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G139" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>171</v>
-      </c>
-      <c r="B140" t="s">
-        <v>344</v>
-      </c>
-      <c r="C140" t="s">
-        <v>343</v>
-      </c>
       <c r="D140" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G140" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>171</v>
-      </c>
-      <c r="B141" t="s">
-        <v>336</v>
-      </c>
-      <c r="C141" t="s">
-        <v>305</v>
-      </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E141" t="s">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G141" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>171</v>
-      </c>
-      <c r="B142" t="s">
-        <v>342</v>
-      </c>
-      <c r="C142" t="s">
-        <v>341</v>
-      </c>
       <c r="D142" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="E142" t="s">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G142" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>339</v>
-      </c>
-      <c r="B143" t="s">
-        <v>338</v>
-      </c>
-      <c r="C143" t="s">
-        <v>337</v>
-      </c>
       <c r="D143">
         <v>1600</v>
       </c>
       <c r="E143" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G143" s="1">
         <v>44185</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>129</v>
-      </c>
-      <c r="B144" t="s">
-        <v>336</v>
-      </c>
-      <c r="C144" t="s">
-        <v>305</v>
-      </c>
       <c r="D144">
         <v>684</v>
       </c>
       <c r="E144" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G144" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>335</v>
-      </c>
-      <c r="C145" t="s">
-        <v>334</v>
-      </c>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D145">
         <v>121.92</v>
       </c>
       <c r="E145" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G145" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>72</v>
-      </c>
-      <c r="B146" t="s">
-        <v>333</v>
-      </c>
-      <c r="C146" t="s">
-        <v>332</v>
-      </c>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E146" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G146" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>72</v>
-      </c>
-      <c r="B147" t="s">
-        <v>331</v>
-      </c>
-      <c r="C147" t="s">
-        <v>330</v>
-      </c>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="E147" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G147" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>72</v>
-      </c>
-      <c r="B148" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" t="s">
-        <v>327</v>
-      </c>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G148" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>72</v>
-      </c>
-      <c r="B149" t="s">
-        <v>326</v>
-      </c>
-      <c r="C149" t="s">
-        <v>325</v>
-      </c>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G149" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150" t="s">
-        <v>324</v>
-      </c>
-      <c r="C150" t="s">
-        <v>323</v>
-      </c>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E150" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G150" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>72</v>
-      </c>
-      <c r="B151" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" t="s">
-        <v>321</v>
-      </c>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E151" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G151" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>72</v>
-      </c>
-      <c r="B152" t="s">
-        <v>320</v>
-      </c>
-      <c r="C152" t="s">
-        <v>319</v>
-      </c>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E152" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G152" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" t="s">
-        <v>317</v>
-      </c>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E153" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G153" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154" t="s">
-        <v>316</v>
-      </c>
-      <c r="C154" t="s">
-        <v>315</v>
-      </c>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E154" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G154" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>72</v>
-      </c>
-      <c r="B155" t="s">
-        <v>314</v>
-      </c>
-      <c r="C155" t="s">
-        <v>313</v>
-      </c>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E155" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G155" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>72</v>
-      </c>
-      <c r="B156" t="s">
-        <v>312</v>
-      </c>
-      <c r="C156" t="s">
-        <v>311</v>
-      </c>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E156" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G156" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>72</v>
-      </c>
-      <c r="B157" t="s">
-        <v>310</v>
-      </c>
-      <c r="C157" t="s">
-        <v>309</v>
-      </c>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E157" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G157" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158" t="s">
-        <v>308</v>
-      </c>
-      <c r="C158" t="s">
-        <v>307</v>
-      </c>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E158" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G158" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" t="s">
-        <v>306</v>
-      </c>
-      <c r="C159" t="s">
-        <v>305</v>
-      </c>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G159" s="1">
         <v>44185</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>303</v>
-      </c>
-      <c r="C160" t="s">
-        <v>302</v>
-      </c>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="E160" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>299</v>
+        <v>38</v>
       </c>
       <c r="G160" s="1">
         <v>44185</v>
